--- a/database.xlsx
+++ b/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="1152" yWindow="1752"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1752" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -399,7 +399,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -409,7 +409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -438,13 +438,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>fds</t>
-        </is>
-      </c>
-    </row>
+    <row r="4"/>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -452,6 +446,13 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/add_vendor</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
@@ -459,7 +460,14 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/add_vendor</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1752" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="1152" yWindow="1752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -399,7 +399,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -409,7 +409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -438,7 +438,13 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/add_vendor</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -467,7 +473,104 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/add_vendor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="1152" yWindow="1752"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1752" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -399,7 +399,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -409,7 +409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -480,97 +480,35 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -409,7 +409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -438,7 +438,13 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/add_vendor</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -464,6 +470,41 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>/add_vendor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/add_vendor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/addven</t>
         </is>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -409,7 +409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -430,26 +430,42 @@
           <t>dsffsdf</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fsdfsd</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>fd12321</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kjk</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>realy&amp;</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
           <t>Arten</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lol</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>/add_vendor</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gfdgfdg</t>
         </is>
       </c>
     </row>
@@ -459,11 +475,113 @@
           <t>None</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>добавь</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t>/add_vendor</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>fdsf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/add_vendor</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>fd</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/addven</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>gfdgfdgfd</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>жив?</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>lol</t>
         </is>
       </c>
     </row>
